--- a/Energia/Model/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/Energia/Model/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -2987,148 +2987,148 @@
         <v>57.6902</v>
       </c>
       <c r="P12">
-        <v>62.0961</v>
+        <v>59.6797</v>
       </c>
       <c r="Q12">
-        <v>61.3941</v>
+        <v>61.451</v>
       </c>
       <c r="R12">
-        <v>65.6127</v>
+        <v>63.1427</v>
       </c>
       <c r="S12">
-        <v>64.77370000000001</v>
+        <v>64.861</v>
       </c>
       <c r="T12">
-        <v>69.2373</v>
+        <v>66.786</v>
       </c>
       <c r="U12">
-        <v>68.9962</v>
+        <v>68.681</v>
       </c>
       <c r="V12">
-        <v>72.7394</v>
+        <v>70.37820000000001</v>
       </c>
       <c r="W12">
-        <v>72.41249999999999</v>
+        <v>72.18980000000001</v>
       </c>
       <c r="X12">
-        <v>76.708</v>
+        <v>74.2252</v>
       </c>
       <c r="Y12">
-        <v>76.741</v>
+        <v>76.2724</v>
       </c>
       <c r="Z12">
-        <v>80.7246</v>
+        <v>78.30249999999999</v>
       </c>
       <c r="AA12">
-        <v>80.9996</v>
+        <v>80.2607</v>
       </c>
       <c r="AB12">
-        <v>84.4483</v>
+        <v>82.2013</v>
       </c>
       <c r="AC12">
-        <v>85.18680000000001</v>
+        <v>84.2101</v>
       </c>
       <c r="AD12">
-        <v>88.44970000000001</v>
+        <v>86.2009</v>
       </c>
       <c r="AE12">
-        <v>89.3005</v>
+        <v>88.2533</v>
       </c>
       <c r="AF12">
-        <v>92.7024</v>
+        <v>90.38979999999999</v>
       </c>
       <c r="AG12">
-        <v>93.7569</v>
+        <v>92.50920000000001</v>
       </c>
       <c r="AH12">
-        <v>96.8854</v>
+        <v>94.6114</v>
       </c>
       <c r="AI12">
-        <v>98.14319999999999</v>
+        <v>96.6238</v>
       </c>
       <c r="AJ12">
-        <v>100.7024</v>
+        <v>98.5414</v>
       </c>
       <c r="AK12">
-        <v>102.143</v>
+        <v>100.5178</v>
       </c>
       <c r="AL12">
-        <v>104.7594</v>
+        <v>102.5824</v>
       </c>
       <c r="AM12">
-        <v>106.5021</v>
+        <v>104.7107</v>
       </c>
       <c r="AN12">
-        <v>109.0761</v>
+        <v>106.7454</v>
       </c>
       <c r="AO12">
-        <v>110.4793</v>
+        <v>108.687</v>
       </c>
       <c r="AP12">
-        <v>113.0139</v>
+        <v>110.6613</v>
       </c>
       <c r="AQ12">
-        <v>114.5891</v>
+        <v>112.6041</v>
       </c>
       <c r="AR12">
-        <v>116.8239</v>
+        <v>114.8002</v>
       </c>
       <c r="AS12">
-        <v>119.1856</v>
+        <v>117.121</v>
       </c>
       <c r="AT12">
-        <v>121.4525</v>
+        <v>119.3486</v>
       </c>
       <c r="AU12">
-        <v>123.8292</v>
+        <v>121.6842</v>
       </c>
       <c r="AV12">
-        <v>126.1792</v>
+        <v>123.9935</v>
       </c>
       <c r="AW12">
-        <v>128.6274</v>
+        <v>126.3992</v>
       </c>
       <c r="AX12">
-        <v>131.0504</v>
+        <v>128.7803</v>
       </c>
       <c r="AY12">
-        <v>133.5453</v>
+        <v>131.2319</v>
       </c>
       <c r="AZ12">
-        <v>136.0254</v>
+        <v>133.6691</v>
       </c>
       <c r="BA12">
-        <v>138.6222</v>
+        <v>136.2208</v>
       </c>
       <c r="BB12">
-        <v>141.2199</v>
+        <v>138.7736</v>
       </c>
       <c r="BC12">
-        <v>143.928</v>
+        <v>141.4348</v>
       </c>
       <c r="BD12">
-        <v>146.6841</v>
+        <v>144.1431</v>
       </c>
       <c r="BE12">
-        <v>149.4787</v>
+        <v>146.8893</v>
       </c>
       <c r="BF12">
-        <v>152.327</v>
+        <v>149.6883</v>
       </c>
       <c r="BG12">
-        <v>155.2224</v>
+        <v>152.5336</v>
       </c>
       <c r="BH12">
-        <v>158.1733</v>
+        <v>155.4333</v>
       </c>
       <c r="BI12">
-        <v>161.1747</v>
+        <v>158.3827</v>
       </c>
       <c r="BJ12">
-        <v>164.2351</v>
+        <v>161.3901</v>
       </c>
       <c r="BK12">
-        <v>167.3528</v>
+        <v>164.4538</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3175,148 +3175,148 @@
         <v>4.8075</v>
       </c>
       <c r="P13">
-        <v>5.1747</v>
+        <v>4.9733</v>
       </c>
       <c r="Q13">
-        <v>5.1162</v>
+        <v>5.1209</v>
       </c>
       <c r="R13">
-        <v>5.4677</v>
+        <v>5.2619</v>
       </c>
       <c r="S13">
-        <v>5.3978</v>
+        <v>5.4051</v>
       </c>
       <c r="T13">
-        <v>5.7698</v>
+        <v>5.5655</v>
       </c>
       <c r="U13">
-        <v>5.7497</v>
+        <v>5.7234</v>
       </c>
       <c r="V13">
-        <v>6.0616</v>
+        <v>5.8649</v>
       </c>
       <c r="W13">
-        <v>6.0344</v>
+        <v>6.0158</v>
       </c>
       <c r="X13">
-        <v>6.3923</v>
+        <v>6.1854</v>
       </c>
       <c r="Y13">
-        <v>6.3951</v>
+        <v>6.356</v>
       </c>
       <c r="Z13">
-        <v>6.727</v>
+        <v>6.5252</v>
       </c>
       <c r="AA13">
-        <v>6.75</v>
+        <v>6.6884</v>
       </c>
       <c r="AB13">
-        <v>7.0374</v>
+        <v>6.8501</v>
       </c>
       <c r="AC13">
-        <v>7.0989</v>
+        <v>7.0175</v>
       </c>
       <c r="AD13">
-        <v>7.3708</v>
+        <v>7.1834</v>
       </c>
       <c r="AE13">
-        <v>7.4417</v>
+        <v>7.3544</v>
       </c>
       <c r="AF13">
-        <v>7.7252</v>
+        <v>7.5325</v>
       </c>
       <c r="AG13">
-        <v>7.8131</v>
+        <v>7.7091</v>
       </c>
       <c r="AH13">
-        <v>8.0738</v>
+        <v>7.8843</v>
       </c>
       <c r="AI13">
-        <v>8.178599999999999</v>
+        <v>8.052</v>
       </c>
       <c r="AJ13">
-        <v>8.3919</v>
+        <v>8.2118</v>
       </c>
       <c r="AK13">
-        <v>8.511900000000001</v>
+        <v>8.3765</v>
       </c>
       <c r="AL13">
-        <v>8.73</v>
+        <v>8.548500000000001</v>
       </c>
       <c r="AM13">
-        <v>8.8752</v>
+        <v>8.725899999999999</v>
       </c>
       <c r="AN13">
-        <v>9.089700000000001</v>
+        <v>8.8954</v>
       </c>
       <c r="AO13">
-        <v>9.2066</v>
+        <v>9.0572</v>
       </c>
       <c r="AP13">
-        <v>9.4178</v>
+        <v>9.2218</v>
       </c>
       <c r="AQ13">
-        <v>9.549099999999999</v>
+        <v>9.383699999999999</v>
       </c>
       <c r="AR13">
-        <v>9.735300000000001</v>
+        <v>9.566700000000001</v>
       </c>
       <c r="AS13">
-        <v>9.9321</v>
+        <v>9.7601</v>
       </c>
       <c r="AT13">
-        <v>10.121</v>
+        <v>9.9457</v>
       </c>
       <c r="AU13">
-        <v>10.3191</v>
+        <v>10.1404</v>
       </c>
       <c r="AV13">
-        <v>10.5149</v>
+        <v>10.3328</v>
       </c>
       <c r="AW13">
-        <v>10.719</v>
+        <v>10.5333</v>
       </c>
       <c r="AX13">
-        <v>10.9209</v>
+        <v>10.7317</v>
       </c>
       <c r="AY13">
-        <v>11.1288</v>
+        <v>10.936</v>
       </c>
       <c r="AZ13">
-        <v>11.3354</v>
+        <v>11.1391</v>
       </c>
       <c r="BA13">
-        <v>11.5518</v>
+        <v>11.3517</v>
       </c>
       <c r="BB13">
-        <v>11.7683</v>
+        <v>11.5645</v>
       </c>
       <c r="BC13">
-        <v>11.994</v>
+        <v>11.7862</v>
       </c>
       <c r="BD13">
-        <v>12.2237</v>
+        <v>12.0119</v>
       </c>
       <c r="BE13">
-        <v>12.4566</v>
+        <v>12.2408</v>
       </c>
       <c r="BF13">
-        <v>12.6939</v>
+        <v>12.474</v>
       </c>
       <c r="BG13">
-        <v>12.9352</v>
+        <v>12.7111</v>
       </c>
       <c r="BH13">
-        <v>13.1811</v>
+        <v>12.9528</v>
       </c>
       <c r="BI13">
-        <v>13.4312</v>
+        <v>13.1986</v>
       </c>
       <c r="BJ13">
-        <v>13.6863</v>
+        <v>13.4492</v>
       </c>
       <c r="BK13">
-        <v>13.9461</v>
+        <v>13.7045</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3742,148 +3742,148 @@
         <v>13.4583</v>
       </c>
       <c r="P16">
-        <v>14.4861</v>
+        <v>13.9224</v>
       </c>
       <c r="Q16">
-        <v>14.3224</v>
+        <v>14.3356</v>
       </c>
       <c r="R16">
-        <v>15.3065</v>
+        <v>14.7303</v>
       </c>
       <c r="S16">
-        <v>15.1108</v>
+        <v>15.1311</v>
       </c>
       <c r="T16">
-        <v>16.1521</v>
+        <v>15.5802</v>
       </c>
       <c r="U16">
-        <v>16.0958</v>
+        <v>16.0223</v>
       </c>
       <c r="V16">
-        <v>16.969</v>
+        <v>16.4182</v>
       </c>
       <c r="W16">
-        <v>16.8928</v>
+        <v>16.8408</v>
       </c>
       <c r="X16">
-        <v>17.8948</v>
+        <v>17.3157</v>
       </c>
       <c r="Y16">
-        <v>17.9026</v>
+        <v>17.7932</v>
       </c>
       <c r="Z16">
-        <v>18.8319</v>
+        <v>18.2668</v>
       </c>
       <c r="AA16">
-        <v>18.896</v>
+        <v>18.7236</v>
       </c>
       <c r="AB16">
-        <v>19.7006</v>
+        <v>19.1764</v>
       </c>
       <c r="AC16">
-        <v>19.8728</v>
+        <v>19.645</v>
       </c>
       <c r="AD16">
-        <v>20.634</v>
+        <v>20.1094</v>
       </c>
       <c r="AE16">
-        <v>20.8325</v>
+        <v>20.5882</v>
       </c>
       <c r="AF16">
-        <v>21.6261</v>
+        <v>21.0866</v>
       </c>
       <c r="AG16">
-        <v>21.8721</v>
+        <v>21.581</v>
       </c>
       <c r="AH16">
-        <v>22.6019</v>
+        <v>22.0714</v>
       </c>
       <c r="AI16">
-        <v>22.8954</v>
+        <v>22.5409</v>
       </c>
       <c r="AJ16">
-        <v>23.4924</v>
+        <v>22.9883</v>
       </c>
       <c r="AK16">
-        <v>23.8285</v>
+        <v>23.4493</v>
       </c>
       <c r="AL16">
-        <v>24.4388</v>
+        <v>23.931</v>
       </c>
       <c r="AM16">
-        <v>24.8454</v>
+        <v>24.4275</v>
       </c>
       <c r="AN16">
-        <v>25.4459</v>
+        <v>24.9021</v>
       </c>
       <c r="AO16">
-        <v>25.7732</v>
+        <v>25.3551</v>
       </c>
       <c r="AP16">
-        <v>26.3645</v>
+        <v>25.8156</v>
       </c>
       <c r="AQ16">
-        <v>26.732</v>
+        <v>26.2689</v>
       </c>
       <c r="AR16">
-        <v>27.2533</v>
+        <v>26.7812</v>
       </c>
       <c r="AS16">
-        <v>27.8043</v>
+        <v>27.3226</v>
       </c>
       <c r="AT16">
-        <v>28.3331</v>
+        <v>27.8423</v>
       </c>
       <c r="AU16">
-        <v>28.8875</v>
+        <v>28.3871</v>
       </c>
       <c r="AV16">
-        <v>29.4358</v>
+        <v>28.9259</v>
       </c>
       <c r="AW16">
-        <v>30.0069</v>
+        <v>29.4871</v>
       </c>
       <c r="AX16">
-        <v>30.5721</v>
+        <v>30.0425</v>
       </c>
       <c r="AY16">
-        <v>31.1542</v>
+        <v>30.6145</v>
       </c>
       <c r="AZ16">
-        <v>31.7327</v>
+        <v>31.183</v>
       </c>
       <c r="BA16">
-        <v>32.3385</v>
+        <v>31.7783</v>
       </c>
       <c r="BB16">
-        <v>32.9445</v>
+        <v>32.3738</v>
       </c>
       <c r="BC16">
-        <v>33.5763</v>
+        <v>32.9947</v>
       </c>
       <c r="BD16">
-        <v>34.2192</v>
+        <v>33.6265</v>
       </c>
       <c r="BE16">
-        <v>34.8712</v>
+        <v>34.2671</v>
       </c>
       <c r="BF16">
-        <v>35.5357</v>
+        <v>34.9201</v>
       </c>
       <c r="BG16">
-        <v>36.2111</v>
+        <v>35.5838</v>
       </c>
       <c r="BH16">
-        <v>36.8995</v>
+        <v>36.2603</v>
       </c>
       <c r="BI16">
-        <v>37.5997</v>
+        <v>36.9484</v>
       </c>
       <c r="BJ16">
-        <v>38.3136</v>
+        <v>37.6499</v>
       </c>
       <c r="BK16">
-        <v>39.0409</v>
+        <v>38.3646</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3930,148 +3930,148 @@
         <v>4.8065</v>
       </c>
       <c r="P17">
-        <v>5.1736</v>
+        <v>4.9723</v>
       </c>
       <c r="Q17">
-        <v>5.1151</v>
+        <v>5.1199</v>
       </c>
       <c r="R17">
-        <v>5.4666</v>
+        <v>5.2608</v>
       </c>
       <c r="S17">
-        <v>5.3967</v>
+        <v>5.404</v>
       </c>
       <c r="T17">
-        <v>5.7686</v>
+        <v>5.5644</v>
       </c>
       <c r="U17">
-        <v>5.7485</v>
+        <v>5.7223</v>
       </c>
       <c r="V17">
-        <v>6.0604</v>
+        <v>5.8636</v>
       </c>
       <c r="W17">
-        <v>6.0331</v>
+        <v>6.0146</v>
       </c>
       <c r="X17">
-        <v>6.391</v>
+        <v>6.1842</v>
       </c>
       <c r="Y17">
-        <v>6.3938</v>
+        <v>6.3547</v>
       </c>
       <c r="Z17">
-        <v>6.7257</v>
+        <v>6.5239</v>
       </c>
       <c r="AA17">
-        <v>6.7486</v>
+        <v>6.687</v>
       </c>
       <c r="AB17">
-        <v>7.0359</v>
+        <v>6.8487</v>
       </c>
       <c r="AC17">
-        <v>7.0974</v>
+        <v>7.0161</v>
       </c>
       <c r="AD17">
-        <v>7.3693</v>
+        <v>7.1819</v>
       </c>
       <c r="AE17">
-        <v>7.4402</v>
+        <v>7.3529</v>
       </c>
       <c r="AF17">
-        <v>7.7236</v>
+        <v>7.5309</v>
       </c>
       <c r="AG17">
-        <v>7.8115</v>
+        <v>7.7075</v>
       </c>
       <c r="AH17">
-        <v>8.072100000000001</v>
+        <v>7.8826</v>
       </c>
       <c r="AI17">
-        <v>8.1769</v>
+        <v>8.0503</v>
       </c>
       <c r="AJ17">
-        <v>8.3901</v>
+        <v>8.210100000000001</v>
       </c>
       <c r="AK17">
-        <v>8.510199999999999</v>
+        <v>8.3748</v>
       </c>
       <c r="AL17">
-        <v>8.7281</v>
+        <v>8.546799999999999</v>
       </c>
       <c r="AM17">
-        <v>8.8734</v>
+        <v>8.7241</v>
       </c>
       <c r="AN17">
-        <v>9.0878</v>
+        <v>8.893599999999999</v>
       </c>
       <c r="AO17">
-        <v>9.204700000000001</v>
+        <v>9.055400000000001</v>
       </c>
       <c r="AP17">
-        <v>9.415900000000001</v>
+        <v>9.219900000000001</v>
       </c>
       <c r="AQ17">
-        <v>9.5471</v>
+        <v>9.3818</v>
       </c>
       <c r="AR17">
-        <v>9.7333</v>
+        <v>9.5647</v>
       </c>
       <c r="AS17">
-        <v>9.930099999999999</v>
+        <v>9.758100000000001</v>
       </c>
       <c r="AT17">
-        <v>10.119</v>
+        <v>9.9437</v>
       </c>
       <c r="AU17">
-        <v>10.317</v>
+        <v>10.1383</v>
       </c>
       <c r="AV17">
-        <v>10.5128</v>
+        <v>10.3307</v>
       </c>
       <c r="AW17">
-        <v>10.7168</v>
+        <v>10.5311</v>
       </c>
       <c r="AX17">
-        <v>10.9186</v>
+        <v>10.7295</v>
       </c>
       <c r="AY17">
-        <v>11.1265</v>
+        <v>10.9338</v>
       </c>
       <c r="AZ17">
-        <v>11.3331</v>
+        <v>11.1368</v>
       </c>
       <c r="BA17">
-        <v>11.5495</v>
+        <v>11.3494</v>
       </c>
       <c r="BB17">
-        <v>11.7659</v>
+        <v>11.5621</v>
       </c>
       <c r="BC17">
-        <v>11.9915</v>
+        <v>11.7838</v>
       </c>
       <c r="BD17">
-        <v>12.2211</v>
+        <v>12.0095</v>
       </c>
       <c r="BE17">
-        <v>12.454</v>
+        <v>12.2383</v>
       </c>
       <c r="BF17">
-        <v>12.6913</v>
+        <v>12.4715</v>
       </c>
       <c r="BG17">
-        <v>12.9325</v>
+        <v>12.7085</v>
       </c>
       <c r="BH17">
-        <v>13.1784</v>
+        <v>12.9501</v>
       </c>
       <c r="BI17">
-        <v>13.4285</v>
+        <v>13.1959</v>
       </c>
       <c r="BJ17">
-        <v>13.6834</v>
+        <v>13.4464</v>
       </c>
       <c r="BK17">
-        <v>13.9432</v>
+        <v>13.7016</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4121,148 +4121,148 @@
         <v>7.001</v>
       </c>
       <c r="P18">
-        <v>7.5357</v>
+        <v>7.2424</v>
       </c>
       <c r="Q18">
-        <v>7.4505</v>
+        <v>7.4574</v>
       </c>
       <c r="R18">
-        <v>7.9624</v>
+        <v>7.6627</v>
       </c>
       <c r="S18">
-        <v>7.8606</v>
+        <v>7.8712</v>
       </c>
       <c r="T18">
-        <v>8.4023</v>
+        <v>8.104799999999999</v>
       </c>
       <c r="U18">
-        <v>8.372999999999999</v>
+        <v>8.3348</v>
       </c>
       <c r="V18">
-        <v>8.827299999999999</v>
+        <v>8.540699999999999</v>
       </c>
       <c r="W18">
-        <v>8.787599999999999</v>
+        <v>8.7606</v>
       </c>
       <c r="X18">
-        <v>9.3089</v>
+        <v>9.0076</v>
       </c>
       <c r="Y18">
-        <v>9.312900000000001</v>
+        <v>9.256</v>
       </c>
       <c r="Z18">
-        <v>9.7963</v>
+        <v>9.5024</v>
       </c>
       <c r="AA18">
-        <v>9.829700000000001</v>
+        <v>9.74</v>
       </c>
       <c r="AB18">
-        <v>10.2482</v>
+        <v>9.9755</v>
       </c>
       <c r="AC18">
-        <v>10.3378</v>
+        <v>10.2193</v>
       </c>
       <c r="AD18">
-        <v>10.7338</v>
+        <v>10.4609</v>
       </c>
       <c r="AE18">
-        <v>10.8371</v>
+        <v>10.71</v>
       </c>
       <c r="AF18">
-        <v>11.2499</v>
+        <v>10.9693</v>
       </c>
       <c r="AG18">
-        <v>11.3779</v>
+        <v>11.2265</v>
       </c>
       <c r="AH18">
-        <v>11.7575</v>
+        <v>11.4816</v>
       </c>
       <c r="AI18">
-        <v>11.9102</v>
+        <v>11.7258</v>
       </c>
       <c r="AJ18">
-        <v>12.2207</v>
+        <v>11.9585</v>
       </c>
       <c r="AK18">
-        <v>12.3956</v>
+        <v>12.1983</v>
       </c>
       <c r="AL18">
-        <v>12.7131</v>
+        <v>12.4489</v>
       </c>
       <c r="AM18">
-        <v>12.9246</v>
+        <v>12.7072</v>
       </c>
       <c r="AN18">
-        <v>13.2369</v>
+        <v>12.9541</v>
       </c>
       <c r="AO18">
-        <v>13.4072</v>
+        <v>13.1897</v>
       </c>
       <c r="AP18">
-        <v>13.7148</v>
+        <v>13.4293</v>
       </c>
       <c r="AQ18">
-        <v>13.906</v>
+        <v>13.6651</v>
       </c>
       <c r="AR18">
-        <v>14.1772</v>
+        <v>13.9316</v>
       </c>
       <c r="AS18">
-        <v>14.4638</v>
+        <v>14.2132</v>
       </c>
       <c r="AT18">
-        <v>14.7389</v>
+        <v>14.4836</v>
       </c>
       <c r="AU18">
-        <v>15.0273</v>
+        <v>14.767</v>
       </c>
       <c r="AV18">
-        <v>15.3125</v>
+        <v>15.0472</v>
       </c>
       <c r="AW18">
-        <v>15.6096</v>
+        <v>15.3392</v>
       </c>
       <c r="AX18">
-        <v>15.9036</v>
+        <v>15.6281</v>
       </c>
       <c r="AY18">
-        <v>16.2064</v>
+        <v>15.9257</v>
       </c>
       <c r="AZ18">
-        <v>16.5074</v>
+        <v>16.2214</v>
       </c>
       <c r="BA18">
-        <v>16.8225</v>
+        <v>16.5311</v>
       </c>
       <c r="BB18">
-        <v>17.1377</v>
+        <v>16.8409</v>
       </c>
       <c r="BC18">
-        <v>17.4664</v>
+        <v>17.1638</v>
       </c>
       <c r="BD18">
-        <v>17.8008</v>
+        <v>17.4925</v>
       </c>
       <c r="BE18">
-        <v>18.14</v>
+        <v>17.8258</v>
       </c>
       <c r="BF18">
-        <v>18.4856</v>
+        <v>18.1654</v>
       </c>
       <c r="BG18">
-        <v>18.837</v>
+        <v>18.5107</v>
       </c>
       <c r="BH18">
-        <v>19.1951</v>
+        <v>18.8626</v>
       </c>
       <c r="BI18">
-        <v>19.5594</v>
+        <v>19.2205</v>
       </c>
       <c r="BJ18">
-        <v>19.9307</v>
+        <v>19.5855</v>
       </c>
       <c r="BK18">
-        <v>20.3091</v>
+        <v>19.9573</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4309,148 +4309,148 @@
         <v>10.0014</v>
       </c>
       <c r="P19">
-        <v>10.7653</v>
+        <v>10.3463</v>
       </c>
       <c r="Q19">
-        <v>10.6436</v>
+        <v>10.6534</v>
       </c>
       <c r="R19">
-        <v>11.3749</v>
+        <v>10.9467</v>
       </c>
       <c r="S19">
-        <v>11.2294</v>
+        <v>11.2446</v>
       </c>
       <c r="T19">
-        <v>12.0033</v>
+        <v>11.5783</v>
       </c>
       <c r="U19">
-        <v>11.9614</v>
+        <v>11.9069</v>
       </c>
       <c r="V19">
-        <v>12.6104</v>
+        <v>12.201</v>
       </c>
       <c r="W19">
-        <v>12.5537</v>
+        <v>12.5151</v>
       </c>
       <c r="X19">
-        <v>13.2984</v>
+        <v>12.868</v>
       </c>
       <c r="Y19">
-        <v>13.3041</v>
+        <v>13.2229</v>
       </c>
       <c r="Z19">
-        <v>13.9947</v>
+        <v>13.5749</v>
       </c>
       <c r="AA19">
-        <v>14.0424</v>
+        <v>13.9143</v>
       </c>
       <c r="AB19">
-        <v>14.6403</v>
+        <v>14.2507</v>
       </c>
       <c r="AC19">
-        <v>14.7683</v>
+        <v>14.599</v>
       </c>
       <c r="AD19">
-        <v>15.334</v>
+        <v>14.9441</v>
       </c>
       <c r="AE19">
-        <v>15.4816</v>
+        <v>15.3</v>
       </c>
       <c r="AF19">
-        <v>16.0713</v>
+        <v>15.6704</v>
       </c>
       <c r="AG19">
-        <v>16.2541</v>
+        <v>16.0379</v>
       </c>
       <c r="AH19">
-        <v>16.7964</v>
+        <v>16.4023</v>
       </c>
       <c r="AI19">
-        <v>17.0146</v>
+        <v>16.7511</v>
       </c>
       <c r="AJ19">
-        <v>17.4581</v>
+        <v>17.0836</v>
       </c>
       <c r="AK19">
-        <v>17.708</v>
+        <v>17.4261</v>
       </c>
       <c r="AL19">
-        <v>18.1616</v>
+        <v>17.7841</v>
       </c>
       <c r="AM19">
-        <v>18.4637</v>
+        <v>18.1531</v>
       </c>
       <c r="AN19">
-        <v>18.9099</v>
+        <v>18.5059</v>
       </c>
       <c r="AO19">
-        <v>19.1531</v>
+        <v>18.8424</v>
       </c>
       <c r="AP19">
-        <v>19.5926</v>
+        <v>19.1847</v>
       </c>
       <c r="AQ19">
-        <v>19.8657</v>
+        <v>19.5216</v>
       </c>
       <c r="AR19">
-        <v>20.2531</v>
+        <v>19.9023</v>
       </c>
       <c r="AS19">
-        <v>20.6626</v>
+        <v>20.3046</v>
       </c>
       <c r="AT19">
-        <v>21.0556</v>
+        <v>20.6909</v>
       </c>
       <c r="AU19">
-        <v>21.4676</v>
+        <v>21.0957</v>
       </c>
       <c r="AV19">
-        <v>21.875</v>
+        <v>21.496</v>
       </c>
       <c r="AW19">
-        <v>22.2994</v>
+        <v>21.9131</v>
       </c>
       <c r="AX19">
-        <v>22.7194</v>
+        <v>22.3259</v>
       </c>
       <c r="AY19">
-        <v>23.152</v>
+        <v>22.751</v>
       </c>
       <c r="AZ19">
-        <v>23.582</v>
+        <v>23.1734</v>
       </c>
       <c r="BA19">
-        <v>24.0321</v>
+        <v>23.6159</v>
       </c>
       <c r="BB19">
-        <v>24.4824</v>
+        <v>24.0584</v>
       </c>
       <c r="BC19">
-        <v>24.952</v>
+        <v>24.5197</v>
       </c>
       <c r="BD19">
-        <v>25.4297</v>
+        <v>24.9893</v>
       </c>
       <c r="BE19">
-        <v>25.9143</v>
+        <v>25.4654</v>
       </c>
       <c r="BF19">
-        <v>26.408</v>
+        <v>25.9506</v>
       </c>
       <c r="BG19">
-        <v>26.91</v>
+        <v>26.4439</v>
       </c>
       <c r="BH19">
-        <v>27.4216</v>
+        <v>26.9466</v>
       </c>
       <c r="BI19">
-        <v>27.942</v>
+        <v>27.4579</v>
       </c>
       <c r="BJ19">
-        <v>28.4724</v>
+        <v>27.9793</v>
       </c>
       <c r="BK19">
-        <v>29.013</v>
+        <v>28.5104</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4876,7 +4876,7 @@
         <v>2.3651</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>4.3396</v>
       </c>
       <c r="P22">
         <v>3.46</v>
@@ -5055,163 +5055,163 @@
         <v>160</v>
       </c>
       <c r="K23">
-        <v>0.1899</v>
+        <v>4.7631</v>
       </c>
       <c r="L23">
-        <v>0.2021</v>
+        <v>5.214</v>
       </c>
       <c r="M23">
-        <v>0.1684</v>
+        <v>4.8432</v>
       </c>
       <c r="N23">
-        <v>0.1974</v>
+        <v>5.4102</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>5.3646</v>
       </c>
       <c r="P23">
-        <v>0.21</v>
+        <v>5.76</v>
       </c>
       <c r="Q23">
-        <v>0.21</v>
+        <v>5.94</v>
       </c>
       <c r="R23">
-        <v>0.21</v>
+        <v>6.08</v>
       </c>
       <c r="S23">
-        <v>0.22</v>
+        <v>6.2</v>
       </c>
       <c r="T23">
-        <v>0.22</v>
+        <v>6.36</v>
       </c>
       <c r="U23">
-        <v>0.23</v>
+        <v>6.49</v>
       </c>
       <c r="V23">
-        <v>0.23</v>
+        <v>6.58</v>
       </c>
       <c r="W23">
-        <v>0.24</v>
+        <v>6.67</v>
       </c>
       <c r="X23">
-        <v>0.24</v>
+        <v>6.81</v>
       </c>
       <c r="Y23">
-        <v>0.24</v>
+        <v>6.9</v>
       </c>
       <c r="Z23">
-        <v>0.25</v>
+        <v>7.02</v>
       </c>
       <c r="AA23">
-        <v>0.25</v>
+        <v>7.1</v>
       </c>
       <c r="AB23">
-        <v>0.26</v>
+        <v>7.19</v>
       </c>
       <c r="AC23">
-        <v>0.26</v>
+        <v>7.3</v>
       </c>
       <c r="AD23">
-        <v>0.27</v>
+        <v>7.4</v>
       </c>
       <c r="AE23">
-        <v>0.27</v>
+        <v>7.51</v>
       </c>
       <c r="AF23">
-        <v>0.28</v>
+        <v>7.65</v>
       </c>
       <c r="AG23">
-        <v>0.28</v>
+        <v>7.78</v>
       </c>
       <c r="AH23">
-        <v>0.28</v>
+        <v>7.93</v>
       </c>
       <c r="AI23">
-        <v>0.29</v>
+        <v>8.08</v>
       </c>
       <c r="AJ23">
-        <v>0.29</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AK23">
-        <v>0.3</v>
+        <v>8.4</v>
       </c>
       <c r="AL23">
-        <v>0.3</v>
+        <v>8.57</v>
       </c>
       <c r="AM23">
-        <v>0.3</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AN23">
-        <v>0.31</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AO23">
-        <v>0.31</v>
+        <v>9.16</v>
       </c>
       <c r="AP23">
-        <v>0.32</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AQ23">
-        <v>0.32</v>
+        <v>9.57</v>
       </c>
       <c r="AR23">
-        <v>0.32</v>
+        <v>9.75</v>
       </c>
       <c r="AS23">
-        <v>0.33</v>
+        <v>9.94</v>
       </c>
       <c r="AT23">
-        <v>0.33</v>
+        <v>10.13</v>
       </c>
       <c r="AU23">
-        <v>0.34</v>
+        <v>10.33</v>
       </c>
       <c r="AV23">
-        <v>0.34</v>
+        <v>10.54</v>
       </c>
       <c r="AW23">
-        <v>0.34</v>
+        <v>10.76</v>
       </c>
       <c r="AX23">
-        <v>0.35</v>
+        <v>10.98</v>
       </c>
       <c r="AY23">
-        <v>0.35</v>
+        <v>11.2</v>
       </c>
       <c r="AZ23">
-        <v>0.35</v>
+        <v>11.44</v>
       </c>
       <c r="BA23">
-        <v>0.36</v>
+        <v>11.67</v>
       </c>
       <c r="BB23">
-        <v>0.36</v>
+        <v>11.92</v>
       </c>
       <c r="BC23">
-        <v>0.36</v>
+        <v>12.16</v>
       </c>
       <c r="BD23">
-        <v>0.37</v>
+        <v>12.42</v>
       </c>
       <c r="BE23">
-        <v>0.37</v>
+        <v>12.67</v>
       </c>
       <c r="BF23">
-        <v>0.37</v>
+        <v>12.93</v>
       </c>
       <c r="BG23">
-        <v>0.38</v>
+        <v>13.19</v>
       </c>
       <c r="BH23">
-        <v>0.38</v>
+        <v>13.46</v>
       </c>
       <c r="BI23">
-        <v>0.38</v>
+        <v>13.73</v>
       </c>
       <c r="BJ23">
-        <v>0.39</v>
+        <v>14.01</v>
       </c>
       <c r="BK23">
-        <v>0.39</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5258,7 +5258,7 @@
         <v>1.0966</v>
       </c>
       <c r="O24">
-        <v>1.13</v>
+        <v>1.0278</v>
       </c>
       <c r="P24">
         <v>1.17</v>
@@ -5640,7 +5640,7 @@
         <v>5.4102</v>
       </c>
       <c r="O26">
-        <v>5.6</v>
+        <v>5.3646</v>
       </c>
       <c r="P26">
         <v>5.76</v>
@@ -5831,148 +5831,148 @@
         <v>25.1505</v>
       </c>
       <c r="O27">
-        <v>25.3154</v>
+        <v>26.5939</v>
       </c>
       <c r="P27">
-        <v>26.482</v>
+        <v>26.2441</v>
       </c>
       <c r="Q27">
-        <v>26.6971</v>
+        <v>26.9289</v>
       </c>
       <c r="R27">
-        <v>27.8393</v>
+        <v>27.5691</v>
       </c>
       <c r="S27">
-        <v>27.9006</v>
+        <v>28.2117</v>
       </c>
       <c r="T27">
-        <v>29.2062</v>
+        <v>28.9515</v>
       </c>
       <c r="U27">
-        <v>29.493</v>
+        <v>29.6852</v>
       </c>
       <c r="V27">
-        <v>30.5487</v>
+        <v>30.3404</v>
       </c>
       <c r="W27">
-        <v>30.7712</v>
+        <v>31.0557</v>
       </c>
       <c r="X27">
-        <v>32.1317</v>
+        <v>31.8749</v>
       </c>
       <c r="Y27">
-        <v>32.4649</v>
+        <v>32.7015</v>
       </c>
       <c r="Z27">
-        <v>33.7444</v>
+        <v>33.5197</v>
       </c>
       <c r="AA27">
-        <v>34.1252</v>
+        <v>34.3033</v>
       </c>
       <c r="AB27">
-        <v>35.2185</v>
+        <v>35.0743</v>
       </c>
       <c r="AC27">
-        <v>35.7349</v>
+        <v>35.866</v>
       </c>
       <c r="AD27">
-        <v>36.7758</v>
+        <v>36.6419</v>
       </c>
       <c r="AE27">
-        <v>37.2813</v>
+        <v>37.4336</v>
       </c>
       <c r="AF27">
-        <v>38.3959</v>
+        <v>38.251</v>
       </c>
       <c r="AG27">
-        <v>38.9309</v>
+        <v>39.0496</v>
       </c>
       <c r="AH27">
-        <v>39.9409</v>
+        <v>39.8302</v>
       </c>
       <c r="AI27">
-        <v>40.5083</v>
+        <v>40.5615</v>
       </c>
       <c r="AJ27">
-        <v>41.2886</v>
+        <v>41.2423</v>
       </c>
       <c r="AK27">
-        <v>41.8837</v>
+        <v>41.9365</v>
       </c>
       <c r="AL27">
-        <v>42.6902</v>
+        <v>42.6576</v>
       </c>
       <c r="AM27">
-        <v>43.3663</v>
+        <v>43.3947</v>
       </c>
       <c r="AN27">
-        <v>44.156</v>
+        <v>44.0841</v>
       </c>
       <c r="AO27">
-        <v>44.6582</v>
+        <v>44.7263</v>
       </c>
       <c r="AP27">
-        <v>45.4329</v>
+        <v>45.3748</v>
       </c>
       <c r="AQ27">
-        <v>45.9752</v>
+        <v>46.0308</v>
       </c>
       <c r="AR27">
-        <v>46.74</v>
+        <v>46.7188</v>
       </c>
       <c r="AS27">
-        <v>47.42</v>
+        <v>47.4125</v>
       </c>
       <c r="AT27">
-        <v>48.07</v>
+        <v>48.08</v>
       </c>
       <c r="AU27">
-        <v>48.76</v>
+        <v>48.7575</v>
       </c>
       <c r="AV27">
-        <v>49.44</v>
+        <v>49.445</v>
       </c>
       <c r="AW27">
-        <v>50.14</v>
+        <v>50.1275</v>
       </c>
       <c r="AX27">
-        <v>50.79</v>
+        <v>50.7925</v>
       </c>
       <c r="AY27">
-        <v>51.45</v>
+        <v>51.445</v>
       </c>
       <c r="AZ27">
-        <v>52.09</v>
+        <v>52.0925</v>
       </c>
       <c r="BA27">
-        <v>52.74</v>
+        <v>52.7325</v>
       </c>
       <c r="BB27">
-        <v>53.36</v>
+        <v>53.3625</v>
       </c>
       <c r="BC27">
-        <v>53.99</v>
+        <v>53.9875</v>
       </c>
       <c r="BD27">
-        <v>54.61</v>
+        <v>54.6075</v>
       </c>
       <c r="BE27">
         <v>55.22</v>
       </c>
       <c r="BF27">
-        <v>55.83</v>
+        <v>55.825</v>
       </c>
       <c r="BG27">
-        <v>56.42</v>
+        <v>56.4175</v>
       </c>
       <c r="BH27">
-        <v>57</v>
+        <v>56.9975</v>
       </c>
       <c r="BI27">
-        <v>57.57</v>
+        <v>57.5675</v>
       </c>
       <c r="BJ27">
-        <v>58.13</v>
+        <v>58.1275</v>
       </c>
       <c r="BK27">
         <v>58.68</v>
@@ -6022,25 +6022,25 @@
         <v>0.3149</v>
       </c>
       <c r="O28">
-        <v>0.32</v>
+        <v>0.3172</v>
       </c>
       <c r="P28">
-        <v>0.33</v>
+        <v>0.3275</v>
       </c>
       <c r="Q28">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="R28">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="S28">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="T28">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="U28">
-        <v>0.37</v>
+        <v>0.3725</v>
       </c>
       <c r="V28">
         <v>0.38</v>
@@ -6085,10 +6085,10 @@
         <v>0.51</v>
       </c>
       <c r="AJ28">
-        <v>0.52</v>
+        <v>0.5175</v>
       </c>
       <c r="AK28">
-        <v>0.52</v>
+        <v>0.5225</v>
       </c>
       <c r="AL28">
         <v>0.53</v>
@@ -6109,10 +6109,10 @@
         <v>0.58</v>
       </c>
       <c r="AR28">
-        <v>0.59</v>
+        <v>0.5875</v>
       </c>
       <c r="AS28">
-        <v>0.59</v>
+        <v>0.5925</v>
       </c>
       <c r="AT28">
         <v>0.6</v>
@@ -6127,10 +6127,10 @@
         <v>0.63</v>
       </c>
       <c r="AX28">
-        <v>0.64</v>
+        <v>0.6375</v>
       </c>
       <c r="AY28">
-        <v>0.64</v>
+        <v>0.6425</v>
       </c>
       <c r="AZ28">
         <v>0.65</v>
@@ -6142,10 +6142,10 @@
         <v>0.67</v>
       </c>
       <c r="BC28">
-        <v>0.68</v>
+        <v>0.6775</v>
       </c>
       <c r="BD28">
-        <v>0.68</v>
+        <v>0.6825</v>
       </c>
       <c r="BE28">
         <v>0.6899999999999999</v>
@@ -6154,16 +6154,16 @@
         <v>0.7</v>
       </c>
       <c r="BG28">
-        <v>0.71</v>
+        <v>0.7075</v>
       </c>
       <c r="BH28">
-        <v>0.71</v>
+        <v>0.7125</v>
       </c>
       <c r="BI28">
         <v>0.72</v>
       </c>
       <c r="BJ28">
-        <v>0.73</v>
+        <v>0.7275</v>
       </c>
       <c r="BK28">
         <v>0.73</v>
@@ -6213,73 +6213,73 @@
         <v>2.3811</v>
       </c>
       <c r="O29">
-        <v>2.4</v>
+        <v>2.6553</v>
       </c>
       <c r="P29">
-        <v>2.51</v>
+        <v>2.4875</v>
       </c>
       <c r="Q29">
-        <v>2.53</v>
+        <v>2.5525</v>
       </c>
       <c r="R29">
-        <v>2.64</v>
+        <v>2.6125</v>
       </c>
       <c r="S29">
-        <v>2.64</v>
+        <v>2.6725</v>
       </c>
       <c r="T29">
-        <v>2.77</v>
+        <v>2.7425</v>
       </c>
       <c r="U29">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="V29">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="W29">
-        <v>2.91</v>
+        <v>2.9375</v>
       </c>
       <c r="X29">
-        <v>3.04</v>
+        <v>3.015</v>
       </c>
       <c r="Y29">
-        <v>3.07</v>
+        <v>3.0925</v>
       </c>
       <c r="Z29">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="AA29">
-        <v>3.23</v>
+        <v>3.245</v>
       </c>
       <c r="AB29">
-        <v>3.33</v>
+        <v>3.3175</v>
       </c>
       <c r="AC29">
-        <v>3.38</v>
+        <v>3.3925</v>
       </c>
       <c r="AD29">
-        <v>3.48</v>
+        <v>3.4675</v>
       </c>
       <c r="AE29">
-        <v>3.53</v>
+        <v>3.545</v>
       </c>
       <c r="AF29">
-        <v>3.64</v>
+        <v>3.625</v>
       </c>
       <c r="AG29">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="AH29">
-        <v>3.78</v>
+        <v>3.7725</v>
       </c>
       <c r="AI29">
-        <v>3.84</v>
+        <v>3.8425</v>
       </c>
       <c r="AJ29">
-        <v>3.91</v>
+        <v>3.9075</v>
       </c>
       <c r="AK29">
-        <v>3.97</v>
+        <v>3.9725</v>
       </c>
       <c r="AL29">
         <v>4.04</v>
@@ -6288,34 +6288,34 @@
         <v>4.11</v>
       </c>
       <c r="AN29">
-        <v>4.18</v>
+        <v>4.175</v>
       </c>
       <c r="AO29">
-        <v>4.23</v>
+        <v>4.235</v>
       </c>
       <c r="AP29">
-        <v>4.3</v>
+        <v>4.295</v>
       </c>
       <c r="AQ29">
-        <v>4.35</v>
+        <v>4.3575</v>
       </c>
       <c r="AR29">
-        <v>4.43</v>
+        <v>4.425</v>
       </c>
       <c r="AS29">
         <v>4.49</v>
       </c>
       <c r="AT29">
-        <v>4.55</v>
+        <v>4.5525</v>
       </c>
       <c r="AU29">
-        <v>4.62</v>
+        <v>4.6175</v>
       </c>
       <c r="AV29">
-        <v>4.68</v>
+        <v>4.6825</v>
       </c>
       <c r="AW29">
-        <v>4.75</v>
+        <v>4.7475</v>
       </c>
       <c r="AX29">
         <v>4.81</v>
@@ -6342,19 +6342,19 @@
         <v>5.23</v>
       </c>
       <c r="BF29">
-        <v>5.29</v>
+        <v>5.2875</v>
       </c>
       <c r="BG29">
-        <v>5.34</v>
+        <v>5.3425</v>
       </c>
       <c r="BH29">
-        <v>5.4</v>
+        <v>5.3975</v>
       </c>
       <c r="BI29">
         <v>5.45</v>
       </c>
       <c r="BJ29">
-        <v>5.5</v>
+        <v>5.5025</v>
       </c>
       <c r="BK29">
         <v>5.56</v>
@@ -6404,100 +6404,100 @@
         <v>4.3899</v>
       </c>
       <c r="O30">
-        <v>4.42</v>
+        <v>6.0873</v>
       </c>
       <c r="P30">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="Q30">
-        <v>4.66</v>
+        <v>4.7</v>
       </c>
       <c r="R30">
-        <v>4.86</v>
+        <v>4.8125</v>
       </c>
       <c r="S30">
-        <v>4.87</v>
+        <v>4.925</v>
       </c>
       <c r="T30">
-        <v>5.1</v>
+        <v>5.055</v>
       </c>
       <c r="U30">
-        <v>5.15</v>
+        <v>5.1825</v>
       </c>
       <c r="V30">
-        <v>5.33</v>
+        <v>5.295</v>
       </c>
       <c r="W30">
-        <v>5.37</v>
+        <v>5.42</v>
       </c>
       <c r="X30">
-        <v>5.61</v>
+        <v>5.565</v>
       </c>
       <c r="Y30">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="Z30">
-        <v>5.89</v>
+        <v>5.8525</v>
       </c>
       <c r="AA30">
-        <v>5.96</v>
+        <v>5.99</v>
       </c>
       <c r="AB30">
-        <v>6.15</v>
+        <v>6.125</v>
       </c>
       <c r="AC30">
-        <v>6.24</v>
+        <v>6.2625</v>
       </c>
       <c r="AD30">
-        <v>6.42</v>
+        <v>6.3975</v>
       </c>
       <c r="AE30">
-        <v>6.51</v>
+        <v>6.535</v>
       </c>
       <c r="AF30">
-        <v>6.7</v>
+        <v>6.6775</v>
       </c>
       <c r="AG30">
-        <v>6.8</v>
+        <v>6.8175</v>
       </c>
       <c r="AH30">
-        <v>6.97</v>
+        <v>6.9525</v>
       </c>
       <c r="AI30">
-        <v>7.07</v>
+        <v>7.08</v>
       </c>
       <c r="AJ30">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="AK30">
-        <v>7.31</v>
+        <v>7.32</v>
       </c>
       <c r="AL30">
-        <v>7.45</v>
+        <v>7.445</v>
       </c>
       <c r="AM30">
-        <v>7.57</v>
+        <v>7.575</v>
       </c>
       <c r="AN30">
-        <v>7.71</v>
+        <v>7.695</v>
       </c>
       <c r="AO30">
-        <v>7.79</v>
+        <v>7.805</v>
       </c>
       <c r="AP30">
-        <v>7.93</v>
+        <v>7.9175</v>
       </c>
       <c r="AQ30">
-        <v>8.02</v>
+        <v>8.032500000000001</v>
       </c>
       <c r="AR30">
-        <v>8.16</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="AS30">
-        <v>8.279999999999999</v>
+        <v>8.2775</v>
       </c>
       <c r="AT30">
-        <v>8.390000000000001</v>
+        <v>8.3925</v>
       </c>
       <c r="AU30">
         <v>8.51</v>
@@ -6506,22 +6506,22 @@
         <v>8.630000000000001</v>
       </c>
       <c r="AW30">
-        <v>8.75</v>
+        <v>8.7475</v>
       </c>
       <c r="AX30">
-        <v>8.859999999999999</v>
+        <v>8.862500000000001</v>
       </c>
       <c r="AY30">
-        <v>8.98</v>
+        <v>8.977499999999999</v>
       </c>
       <c r="AZ30">
-        <v>9.09</v>
+        <v>9.092499999999999</v>
       </c>
       <c r="BA30">
-        <v>9.210000000000001</v>
+        <v>9.205</v>
       </c>
       <c r="BB30">
-        <v>9.31</v>
+        <v>9.3125</v>
       </c>
       <c r="BC30">
         <v>9.42</v>
@@ -6530,13 +6530,13 @@
         <v>9.529999999999999</v>
       </c>
       <c r="BE30">
-        <v>9.640000000000001</v>
+        <v>9.637499999999999</v>
       </c>
       <c r="BF30">
-        <v>9.74</v>
+        <v>9.7425</v>
       </c>
       <c r="BG30">
-        <v>9.85</v>
+        <v>9.8475</v>
       </c>
       <c r="BH30">
         <v>9.949999999999999</v>
@@ -6545,7 +6545,7 @@
         <v>10.05</v>
       </c>
       <c r="BJ30">
-        <v>10.15</v>
+        <v>10.1475</v>
       </c>
       <c r="BK30">
         <v>10.24</v>
@@ -6595,31 +6595,31 @@
         <v>0.237</v>
       </c>
       <c r="O31">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>0.2475</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0.2525</v>
       </c>
       <c r="R31">
-        <v>0.26</v>
+        <v>0.2575</v>
       </c>
       <c r="S31">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="T31">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="U31">
-        <v>0.28</v>
+        <v>0.2825</v>
       </c>
       <c r="V31">
-        <v>0.29</v>
+        <v>0.2875</v>
       </c>
       <c r="W31">
-        <v>0.29</v>
+        <v>0.2925</v>
       </c>
       <c r="X31">
         <v>0.3</v>
@@ -6628,10 +6628,10 @@
         <v>0.31</v>
       </c>
       <c r="Z31">
-        <v>0.32</v>
+        <v>0.3175</v>
       </c>
       <c r="AA31">
-        <v>0.32</v>
+        <v>0.3225</v>
       </c>
       <c r="AB31">
         <v>0.33</v>
@@ -6640,10 +6640,10 @@
         <v>0.34</v>
       </c>
       <c r="AD31">
-        <v>0.35</v>
+        <v>0.3475</v>
       </c>
       <c r="AE31">
-        <v>0.35</v>
+        <v>0.3525</v>
       </c>
       <c r="AF31">
         <v>0.36</v>
@@ -6652,16 +6652,16 @@
         <v>0.37</v>
       </c>
       <c r="AH31">
-        <v>0.38</v>
+        <v>0.3775</v>
       </c>
       <c r="AI31">
-        <v>0.38</v>
+        <v>0.3825</v>
       </c>
       <c r="AJ31">
-        <v>0.39</v>
+        <v>0.3875</v>
       </c>
       <c r="AK31">
-        <v>0.39</v>
+        <v>0.3925</v>
       </c>
       <c r="AL31">
         <v>0.4</v>
@@ -6670,73 +6670,73 @@
         <v>0.41</v>
       </c>
       <c r="AN31">
-        <v>0.42</v>
+        <v>0.4175</v>
       </c>
       <c r="AO31">
-        <v>0.42</v>
+        <v>0.4225</v>
       </c>
       <c r="AP31">
-        <v>0.43</v>
+        <v>0.4275</v>
       </c>
       <c r="AQ31">
-        <v>0.43</v>
+        <v>0.4325</v>
       </c>
       <c r="AR31">
         <v>0.44</v>
       </c>
       <c r="AS31">
-        <v>0.45</v>
+        <v>0.4475</v>
       </c>
       <c r="AT31">
-        <v>0.45</v>
+        <v>0.4525</v>
       </c>
       <c r="AU31">
         <v>0.46</v>
       </c>
       <c r="AV31">
-        <v>0.47</v>
+        <v>0.4675</v>
       </c>
       <c r="AW31">
-        <v>0.47</v>
+        <v>0.4725</v>
       </c>
       <c r="AX31">
-        <v>0.48</v>
+        <v>0.4775</v>
       </c>
       <c r="AY31">
-        <v>0.48</v>
+        <v>0.4825</v>
       </c>
       <c r="AZ31">
         <v>0.49</v>
       </c>
       <c r="BA31">
-        <v>0.5</v>
+        <v>0.4975</v>
       </c>
       <c r="BB31">
-        <v>0.5</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="BC31">
-        <v>0.51</v>
+        <v>0.5075</v>
       </c>
       <c r="BD31">
-        <v>0.51</v>
+        <v>0.5125</v>
       </c>
       <c r="BE31">
         <v>0.52</v>
       </c>
       <c r="BF31">
-        <v>0.53</v>
+        <v>0.5275</v>
       </c>
       <c r="BG31">
-        <v>0.53</v>
+        <v>0.5325</v>
       </c>
       <c r="BH31">
-        <v>0.54</v>
+        <v>0.5375</v>
       </c>
       <c r="BI31">
-        <v>0.54</v>
+        <v>0.5425</v>
       </c>
       <c r="BJ31">
-        <v>0.55</v>
+        <v>0.5475</v>
       </c>
       <c r="BK31">
         <v>0.55</v>
@@ -6786,109 +6786,109 @@
         <v>2.2582</v>
       </c>
       <c r="O32">
-        <v>2.4573</v>
+        <v>2.7494</v>
       </c>
       <c r="P32">
-        <v>2.3857</v>
+        <v>2.4674</v>
       </c>
       <c r="Q32">
-        <v>2.6409</v>
+        <v>2.5505</v>
       </c>
       <c r="R32">
-        <v>2.5345</v>
+        <v>2.627</v>
       </c>
       <c r="S32">
-        <v>2.7984</v>
+        <v>2.7079</v>
       </c>
       <c r="T32">
-        <v>2.7004</v>
+        <v>2.7962</v>
       </c>
       <c r="U32">
-        <v>2.9856</v>
+        <v>2.8836</v>
       </c>
       <c r="V32">
-        <v>2.8628</v>
+        <v>2.9595</v>
       </c>
       <c r="W32">
-        <v>3.1269</v>
+        <v>3.0402</v>
       </c>
       <c r="X32">
-        <v>3.0443</v>
+        <v>3.1272</v>
       </c>
       <c r="Y32">
-        <v>3.2932</v>
+        <v>3.2146</v>
       </c>
       <c r="Z32">
-        <v>3.2279</v>
+        <v>3.3008</v>
       </c>
       <c r="AA32">
-        <v>3.4545</v>
+        <v>3.3839</v>
       </c>
       <c r="AB32">
-        <v>3.3986</v>
+        <v>3.4663</v>
       </c>
       <c r="AC32">
-        <v>3.6137</v>
+        <v>3.5512</v>
       </c>
       <c r="AD32">
-        <v>3.5787</v>
+        <v>3.6357</v>
       </c>
       <c r="AE32">
-        <v>3.7716</v>
+        <v>3.7223</v>
       </c>
       <c r="AF32">
-        <v>3.7674</v>
+        <v>3.813</v>
       </c>
       <c r="AG32">
-        <v>3.9456</v>
+        <v>3.9026</v>
       </c>
       <c r="AH32">
-        <v>3.9516</v>
+        <v>3.9917</v>
       </c>
       <c r="AI32">
-        <v>4.1181</v>
+        <v>4.0767</v>
       </c>
       <c r="AJ32">
-        <v>4.1192</v>
+        <v>4.158</v>
       </c>
       <c r="AK32">
-        <v>4.2755</v>
+        <v>4.2414</v>
       </c>
       <c r="AL32">
-        <v>4.2952</v>
+        <v>4.3288</v>
       </c>
       <c r="AM32">
-        <v>4.4491</v>
+        <v>4.4186</v>
       </c>
       <c r="AN32">
-        <v>4.4807</v>
+        <v>4.5046</v>
       </c>
       <c r="AO32">
-        <v>4.6078</v>
+        <v>4.5865</v>
       </c>
       <c r="AP32">
-        <v>4.6496</v>
+        <v>4.67</v>
       </c>
       <c r="AQ32">
-        <v>4.773</v>
+        <v>4.7689</v>
       </c>
       <c r="AR32">
-        <v>4.88</v>
+        <v>4.8757</v>
       </c>
       <c r="AS32">
-        <v>4.97</v>
+        <v>4.975</v>
       </c>
       <c r="AT32">
-        <v>5.08</v>
+        <v>5.0775</v>
       </c>
       <c r="AU32">
-        <v>5.18</v>
+        <v>5.1825</v>
       </c>
       <c r="AV32">
-        <v>5.29</v>
+        <v>5.2875</v>
       </c>
       <c r="AW32">
-        <v>5.39</v>
+        <v>5.3925</v>
       </c>
       <c r="AX32">
         <v>5.5</v>
@@ -6897,7 +6897,7 @@
         <v>5.61</v>
       </c>
       <c r="AZ32">
-        <v>5.72</v>
+        <v>5.7225</v>
       </c>
       <c r="BA32">
         <v>5.84</v>
@@ -6909,7 +6909,7 @@
         <v>6.08</v>
       </c>
       <c r="BD32">
-        <v>6.2</v>
+        <v>6.2025</v>
       </c>
       <c r="BE32">
         <v>6.33</v>
@@ -6921,7 +6921,7 @@
         <v>6.59</v>
       </c>
       <c r="BH32">
-        <v>6.72</v>
+        <v>6.7225</v>
       </c>
       <c r="BI32">
         <v>6.86</v>
@@ -6977,94 +6977,94 @@
         <v>1.8326</v>
       </c>
       <c r="O33">
-        <v>1.99</v>
+        <v>2.4914</v>
       </c>
       <c r="P33">
-        <v>1.94</v>
+        <v>2.0025</v>
       </c>
       <c r="Q33">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="R33">
-        <v>2.06</v>
+        <v>2.1325</v>
       </c>
       <c r="S33">
-        <v>2.27</v>
+        <v>2.1975</v>
       </c>
       <c r="T33">
-        <v>2.19</v>
+        <v>2.2675</v>
       </c>
       <c r="U33">
-        <v>2.42</v>
+        <v>2.3375</v>
       </c>
       <c r="V33">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W33">
-        <v>2.54</v>
+        <v>2.4675</v>
       </c>
       <c r="X33">
-        <v>2.47</v>
+        <v>2.5375</v>
       </c>
       <c r="Y33">
-        <v>2.67</v>
+        <v>2.6075</v>
       </c>
       <c r="Z33">
-        <v>2.62</v>
+        <v>2.6775</v>
       </c>
       <c r="AA33">
-        <v>2.8</v>
+        <v>2.745</v>
       </c>
       <c r="AB33">
-        <v>2.76</v>
+        <v>2.8125</v>
       </c>
       <c r="AC33">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AD33">
-        <v>2.9</v>
+        <v>2.9475</v>
       </c>
       <c r="AE33">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="AF33">
-        <v>3.06</v>
+        <v>3.095</v>
       </c>
       <c r="AG33">
-        <v>3.2</v>
+        <v>3.1675</v>
       </c>
       <c r="AH33">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="AI33">
-        <v>3.34</v>
+        <v>3.3075</v>
       </c>
       <c r="AJ33">
-        <v>3.34</v>
+        <v>3.3725</v>
       </c>
       <c r="AK33">
-        <v>3.47</v>
+        <v>3.4425</v>
       </c>
       <c r="AL33">
-        <v>3.49</v>
+        <v>3.515</v>
       </c>
       <c r="AM33">
-        <v>3.61</v>
+        <v>3.5875</v>
       </c>
       <c r="AN33">
-        <v>3.64</v>
+        <v>3.6575</v>
       </c>
       <c r="AO33">
-        <v>3.74</v>
+        <v>3.7225</v>
       </c>
       <c r="AP33">
-        <v>3.77</v>
+        <v>3.7875</v>
       </c>
       <c r="AQ33">
-        <v>3.87</v>
+        <v>3.8675</v>
       </c>
       <c r="AR33">
-        <v>3.96</v>
+        <v>3.9575</v>
       </c>
       <c r="AS33">
         <v>4.04</v>
@@ -7073,25 +7073,25 @@
         <v>4.12</v>
       </c>
       <c r="AU33">
-        <v>4.2</v>
+        <v>4.2025</v>
       </c>
       <c r="AV33">
-        <v>4.29</v>
+        <v>4.2875</v>
       </c>
       <c r="AW33">
-        <v>4.37</v>
+        <v>4.3725</v>
       </c>
       <c r="AX33">
         <v>4.46</v>
       </c>
       <c r="AY33">
-        <v>4.55</v>
+        <v>4.5525</v>
       </c>
       <c r="AZ33">
-        <v>4.65</v>
+        <v>4.6475</v>
       </c>
       <c r="BA33">
-        <v>4.74</v>
+        <v>4.7425</v>
       </c>
       <c r="BB33">
         <v>4.84</v>
@@ -7106,7 +7106,7 @@
         <v>5.14</v>
       </c>
       <c r="BF33">
-        <v>5.24</v>
+        <v>5.2425</v>
       </c>
       <c r="BG33">
         <v>5.35</v>
@@ -7118,7 +7118,7 @@
         <v>5.57</v>
       </c>
       <c r="BJ33">
-        <v>5.68</v>
+        <v>5.6825</v>
       </c>
       <c r="BK33">
         <v>5.8</v>
@@ -7168,148 +7168,148 @@
         <v>8.622999999999999</v>
       </c>
       <c r="O34">
-        <v>9.380000000000001</v>
+        <v>9.8256</v>
       </c>
       <c r="P34">
-        <v>9.109999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="Q34">
-        <v>10.08</v>
+        <v>9.737500000000001</v>
       </c>
       <c r="R34">
-        <v>9.68</v>
+        <v>10.0325</v>
       </c>
       <c r="S34">
-        <v>10.69</v>
+        <v>10.3425</v>
       </c>
       <c r="T34">
-        <v>10.31</v>
+        <v>10.6775</v>
       </c>
       <c r="U34">
-        <v>11.4</v>
+        <v>11.01</v>
       </c>
       <c r="V34">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
       <c r="W34">
-        <v>11.94</v>
+        <v>11.61</v>
       </c>
       <c r="X34">
-        <v>11.63</v>
+        <v>11.945</v>
       </c>
       <c r="Y34">
-        <v>12.58</v>
+        <v>12.28</v>
       </c>
       <c r="Z34">
-        <v>12.33</v>
+        <v>12.6075</v>
       </c>
       <c r="AA34">
-        <v>13.19</v>
+        <v>12.9225</v>
       </c>
       <c r="AB34">
-        <v>12.98</v>
+        <v>13.2375</v>
       </c>
       <c r="AC34">
-        <v>13.8</v>
+        <v>13.5625</v>
       </c>
       <c r="AD34">
-        <v>13.67</v>
+        <v>13.885</v>
       </c>
       <c r="AE34">
-        <v>14.4</v>
+        <v>14.215</v>
       </c>
       <c r="AF34">
-        <v>14.39</v>
+        <v>14.5625</v>
       </c>
       <c r="AG34">
-        <v>15.07</v>
+        <v>14.905</v>
       </c>
       <c r="AH34">
-        <v>15.09</v>
+        <v>15.245</v>
       </c>
       <c r="AI34">
-        <v>15.73</v>
+        <v>15.57</v>
       </c>
       <c r="AJ34">
-        <v>15.73</v>
+        <v>15.88</v>
       </c>
       <c r="AK34">
-        <v>16.33</v>
+        <v>16.1975</v>
       </c>
       <c r="AL34">
-        <v>16.4</v>
+        <v>16.53</v>
       </c>
       <c r="AM34">
-        <v>16.99</v>
+        <v>16.8725</v>
       </c>
       <c r="AN34">
-        <v>17.11</v>
+        <v>17.2025</v>
       </c>
       <c r="AO34">
-        <v>17.6</v>
+        <v>17.515</v>
       </c>
       <c r="AP34">
-        <v>17.75</v>
+        <v>17.8325</v>
       </c>
       <c r="AQ34">
-        <v>18.23</v>
+        <v>18.21</v>
       </c>
       <c r="AR34">
-        <v>18.63</v>
+        <v>18.62</v>
       </c>
       <c r="AS34">
-        <v>18.99</v>
+        <v>19</v>
       </c>
       <c r="AT34">
-        <v>19.39</v>
+        <v>19.385</v>
       </c>
       <c r="AU34">
-        <v>19.77</v>
+        <v>19.7775</v>
       </c>
       <c r="AV34">
-        <v>20.18</v>
+        <v>20.1775</v>
       </c>
       <c r="AW34">
-        <v>20.58</v>
+        <v>20.5875</v>
       </c>
       <c r="AX34">
-        <v>21.01</v>
+        <v>21.005</v>
       </c>
       <c r="AY34">
-        <v>21.42</v>
+        <v>21.4275</v>
       </c>
       <c r="AZ34">
-        <v>21.86</v>
+        <v>21.8575</v>
       </c>
       <c r="BA34">
-        <v>22.29</v>
+        <v>22.3</v>
       </c>
       <c r="BB34">
-        <v>22.76</v>
+        <v>22.7575</v>
       </c>
       <c r="BC34">
-        <v>23.22</v>
+        <v>23.2225</v>
       </c>
       <c r="BD34">
-        <v>23.69</v>
+        <v>23.6925</v>
       </c>
       <c r="BE34">
-        <v>24.17</v>
+        <v>24.1725</v>
       </c>
       <c r="BF34">
-        <v>24.66</v>
+        <v>24.6625</v>
       </c>
       <c r="BG34">
-        <v>25.16</v>
+        <v>25.1625</v>
       </c>
       <c r="BH34">
-        <v>25.67</v>
+        <v>25.675</v>
       </c>
       <c r="BI34">
         <v>26.2</v>
       </c>
       <c r="BJ34">
-        <v>26.73</v>
+        <v>26.7325</v>
       </c>
       <c r="BK34">
         <v>27.27</v>
@@ -7550,121 +7550,121 @@
         <v>3.156</v>
       </c>
       <c r="O36">
-        <v>3.43</v>
+        <v>5.8671</v>
       </c>
       <c r="P36">
-        <v>3.33</v>
+        <v>3.445</v>
       </c>
       <c r="Q36">
-        <v>3.69</v>
+        <v>3.5625</v>
       </c>
       <c r="R36">
-        <v>3.54</v>
+        <v>3.67</v>
       </c>
       <c r="S36">
-        <v>3.91</v>
+        <v>3.7825</v>
       </c>
       <c r="T36">
-        <v>3.77</v>
+        <v>3.905</v>
       </c>
       <c r="U36">
-        <v>4.17</v>
+        <v>4.0275</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>4.135</v>
       </c>
       <c r="W36">
-        <v>4.37</v>
+        <v>4.2475</v>
       </c>
       <c r="X36">
-        <v>4.25</v>
+        <v>4.3675</v>
       </c>
       <c r="Y36">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="Z36">
-        <v>4.51</v>
+        <v>4.6125</v>
       </c>
       <c r="AA36">
-        <v>4.83</v>
+        <v>4.73</v>
       </c>
       <c r="AB36">
-        <v>4.75</v>
+        <v>4.845</v>
       </c>
       <c r="AC36">
-        <v>5.05</v>
+        <v>4.9625</v>
       </c>
       <c r="AD36">
-        <v>5</v>
+        <v>5.08</v>
       </c>
       <c r="AE36">
-        <v>5.27</v>
+        <v>5.2025</v>
       </c>
       <c r="AF36">
-        <v>5.27</v>
+        <v>5.33</v>
       </c>
       <c r="AG36">
-        <v>5.51</v>
+        <v>5.4525</v>
       </c>
       <c r="AH36">
-        <v>5.52</v>
+        <v>5.5775</v>
       </c>
       <c r="AI36">
-        <v>5.76</v>
+        <v>5.7</v>
       </c>
       <c r="AJ36">
-        <v>5.76</v>
+        <v>5.815</v>
       </c>
       <c r="AK36">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="AL36">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="AM36">
-        <v>6.22</v>
+        <v>6.175</v>
       </c>
       <c r="AN36">
-        <v>6.26</v>
+        <v>6.295</v>
       </c>
       <c r="AO36">
-        <v>6.44</v>
+        <v>6.41</v>
       </c>
       <c r="AP36">
-        <v>6.5</v>
+        <v>6.5275</v>
       </c>
       <c r="AQ36">
-        <v>6.67</v>
+        <v>6.665</v>
       </c>
       <c r="AR36">
-        <v>6.82</v>
+        <v>6.815</v>
       </c>
       <c r="AS36">
-        <v>6.95</v>
+        <v>6.955</v>
       </c>
       <c r="AT36">
-        <v>7.1</v>
+        <v>7.095</v>
       </c>
       <c r="AU36">
-        <v>7.23</v>
+        <v>7.2375</v>
       </c>
       <c r="AV36">
-        <v>7.39</v>
+        <v>7.385</v>
       </c>
       <c r="AW36">
-        <v>7.53</v>
+        <v>7.535</v>
       </c>
       <c r="AX36">
-        <v>7.69</v>
+        <v>7.6875</v>
       </c>
       <c r="AY36">
-        <v>7.84</v>
+        <v>7.8425</v>
       </c>
       <c r="AZ36">
         <v>8</v>
       </c>
       <c r="BA36">
-        <v>8.16</v>
+        <v>8.1625</v>
       </c>
       <c r="BB36">
         <v>8.33</v>
@@ -7673,7 +7673,7 @@
         <v>8.5</v>
       </c>
       <c r="BD36">
-        <v>8.67</v>
+        <v>8.672499999999999</v>
       </c>
       <c r="BE36">
         <v>8.85</v>
@@ -7682,7 +7682,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="BG36">
-        <v>9.210000000000001</v>
+        <v>9.2125</v>
       </c>
       <c r="BH36">
         <v>9.4</v>
@@ -7691,7 +7691,7 @@
         <v>9.59</v>
       </c>
       <c r="BJ36">
-        <v>9.779999999999999</v>
+        <v>9.782500000000001</v>
       </c>
       <c r="BK36">
         <v>9.98</v>
@@ -7741,148 +7741,148 @@
         <v>20.303</v>
       </c>
       <c r="O37">
-        <v>22.09</v>
+        <v>17.7932</v>
       </c>
       <c r="P37">
-        <v>21.45</v>
+        <v>22.1825</v>
       </c>
       <c r="Q37">
-        <v>23.74</v>
+        <v>22.93</v>
       </c>
       <c r="R37">
-        <v>22.79</v>
+        <v>23.62</v>
       </c>
       <c r="S37">
-        <v>25.16</v>
+        <v>24.3475</v>
       </c>
       <c r="T37">
-        <v>24.28</v>
+        <v>25.14</v>
       </c>
       <c r="U37">
-        <v>26.84</v>
+        <v>25.925</v>
       </c>
       <c r="V37">
-        <v>25.74</v>
+        <v>26.6075</v>
       </c>
       <c r="W37">
-        <v>28.11</v>
+        <v>27.3325</v>
       </c>
       <c r="X37">
-        <v>27.37</v>
+        <v>28.115</v>
       </c>
       <c r="Y37">
-        <v>29.61</v>
+        <v>28.9025</v>
       </c>
       <c r="Z37">
-        <v>29.02</v>
+        <v>29.6775</v>
       </c>
       <c r="AA37">
-        <v>31.06</v>
+        <v>30.425</v>
       </c>
       <c r="AB37">
-        <v>30.56</v>
+        <v>31.1675</v>
       </c>
       <c r="AC37">
-        <v>32.49</v>
+        <v>31.93</v>
       </c>
       <c r="AD37">
-        <v>32.18</v>
+        <v>32.69</v>
       </c>
       <c r="AE37">
-        <v>33.91</v>
+        <v>33.4675</v>
       </c>
       <c r="AF37">
-        <v>33.87</v>
+        <v>34.28</v>
       </c>
       <c r="AG37">
-        <v>35.47</v>
+        <v>35.085</v>
       </c>
       <c r="AH37">
-        <v>35.53</v>
+        <v>35.89</v>
       </c>
       <c r="AI37">
-        <v>37.03</v>
+        <v>36.6575</v>
       </c>
       <c r="AJ37">
-        <v>37.04</v>
+        <v>37.3875</v>
       </c>
       <c r="AK37">
-        <v>38.44</v>
+        <v>38.135</v>
       </c>
       <c r="AL37">
-        <v>38.62</v>
+        <v>38.92</v>
       </c>
       <c r="AM37">
-        <v>40</v>
+        <v>39.7275</v>
       </c>
       <c r="AN37">
-        <v>40.29</v>
+        <v>40.5025</v>
       </c>
       <c r="AO37">
-        <v>41.43</v>
+        <v>41.2375</v>
       </c>
       <c r="AP37">
-        <v>41.8</v>
+        <v>41.985</v>
       </c>
       <c r="AQ37">
-        <v>42.91</v>
+        <v>42.8675</v>
       </c>
       <c r="AR37">
-        <v>43.85</v>
+        <v>43.83</v>
       </c>
       <c r="AS37">
-        <v>44.71</v>
+        <v>44.7325</v>
       </c>
       <c r="AT37">
-        <v>45.66</v>
+        <v>45.6425</v>
       </c>
       <c r="AU37">
-        <v>46.54</v>
+        <v>46.565</v>
       </c>
       <c r="AV37">
-        <v>47.52</v>
+        <v>47.5075</v>
       </c>
       <c r="AW37">
-        <v>48.45</v>
+        <v>48.47</v>
       </c>
       <c r="AX37">
-        <v>49.46</v>
+        <v>49.4475</v>
       </c>
       <c r="AY37">
-        <v>50.42</v>
+        <v>50.44</v>
       </c>
       <c r="AZ37">
-        <v>51.46</v>
+        <v>51.4575</v>
       </c>
       <c r="BA37">
-        <v>52.49</v>
+        <v>52.505</v>
       </c>
       <c r="BB37">
-        <v>53.58</v>
+        <v>53.5825</v>
       </c>
       <c r="BC37">
-        <v>54.68</v>
+        <v>54.6825</v>
       </c>
       <c r="BD37">
-        <v>55.79</v>
+        <v>55.795</v>
       </c>
       <c r="BE37">
-        <v>56.92</v>
+        <v>56.925</v>
       </c>
       <c r="BF37">
-        <v>58.07</v>
+        <v>58.0775</v>
       </c>
       <c r="BG37">
-        <v>59.25</v>
+        <v>59.255</v>
       </c>
       <c r="BH37">
-        <v>60.45</v>
+        <v>60.4575</v>
       </c>
       <c r="BI37">
-        <v>61.68</v>
+        <v>61.685</v>
       </c>
       <c r="BJ37">
-        <v>62.93</v>
+        <v>62.9375</v>
       </c>
       <c r="BK37">
         <v>64.20999999999999</v>
@@ -9269,151 +9269,151 @@
         <v>1.8857</v>
       </c>
       <c r="O45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="P45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="Q45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="R45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="S45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="T45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="U45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="V45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="W45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="X45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="Y45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="Z45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AA45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AB45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AC45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AD45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AE45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AF45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AG45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AH45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AI45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AJ45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AK45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AL45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AM45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AN45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AO45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AP45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AQ45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AR45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AS45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AT45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AU45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AV45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AW45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AX45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AY45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="AZ45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BA45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BB45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BC45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BD45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BE45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BF45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BG45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BH45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BI45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BJ45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
       <c r="BK45">
-        <v>0.9198</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -10606,7 +10606,7 @@
         <v>40.9455</v>
       </c>
       <c r="O52">
-        <v>42.4929</v>
+        <v>42.4877</v>
       </c>
       <c r="P52">
         <v>43.4122</v>
@@ -10797,7 +10797,7 @@
         <v>2.1627</v>
       </c>
       <c r="O53">
-        <v>2.24</v>
+        <v>2.2073</v>
       </c>
       <c r="P53">
         <v>2.29</v>
@@ -10988,7 +10988,7 @@
         <v>10.8522</v>
       </c>
       <c r="O54">
-        <v>11.26</v>
+        <v>10.9284</v>
       </c>
       <c r="P54">
         <v>11.51</v>
@@ -11561,7 +11561,7 @@
         <v>4.126</v>
       </c>
       <c r="O57">
-        <v>4.28</v>
+        <v>4.2502</v>
       </c>
       <c r="P57">
         <v>4.37</v>
@@ -11752,7 +11752,7 @@
         <v>1.6549</v>
       </c>
       <c r="O58">
-        <v>1.72</v>
+        <v>1.7431</v>
       </c>
       <c r="P58">
         <v>1.75</v>
@@ -11943,7 +11943,7 @@
         <v>20.5105</v>
       </c>
       <c r="O59">
-        <v>21.29</v>
+        <v>28.4403</v>
       </c>
       <c r="P59">
         <v>21.75</v>
@@ -12134,7 +12134,7 @@
         <v>1.0383</v>
       </c>
       <c r="O60">
-        <v>1.08</v>
+        <v>0.9064</v>
       </c>
       <c r="P60">
         <v>1.1</v>
@@ -12325,7 +12325,7 @@
         <v>7.6699</v>
       </c>
       <c r="O61">
-        <v>7.67</v>
+        <v>5.5354</v>
       </c>
       <c r="P61">
         <v>7.67</v>
@@ -12707,7 +12707,7 @@
         <v>28.635</v>
       </c>
       <c r="O63">
-        <v>29.02</v>
+        <v>28.1986</v>
       </c>
       <c r="P63">
         <v>29.4016</v>
@@ -12898,7 +12898,7 @@
         <v>7.1161</v>
       </c>
       <c r="O64">
-        <v>6.8927</v>
+        <v>6.5005</v>
       </c>
       <c r="P64">
         <v>6.6693</v>
@@ -13089,7 +13089,7 @@
         <v>39.9177</v>
       </c>
       <c r="O65">
-        <v>40.45</v>
+        <v>41.303</v>
       </c>
       <c r="P65">
         <v>40.99</v>
@@ -13280,7 +13280,7 @@
         <v>0.0235</v>
       </c>
       <c r="O66">
-        <v>0.02</v>
+        <v>0.0354</v>
       </c>
       <c r="P66">
         <v>0.02</v>
